--- a/examples/03_mortality/portfolio/portfolio_small.xlsx
+++ b/examples/03_mortality/portfolio/portfolio_small.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -52,13 +52,16 @@
     <t>TERM2</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>SMOKERSTATUS</t>
+  </si>
+  <si>
+    <t>RESERVING_RATE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -109,7 +112,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -428,9 +431,10 @@
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -459,10 +463,13 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>44561</v>
       </c>
@@ -491,10 +498,13 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>44561</v>
       </c>
@@ -523,10 +533,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>

--- a/examples/03_mortality/portfolio/portfolio_small.xlsx
+++ b/examples/03_mortality/portfolio/portfolio_small.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Oracle\PyProtolinc\examples\03_mortality\portfolio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB02CFE-8571-45F9-B72B-EDD86DD09588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="-28920" yWindow="-420" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -62,17 +79,20 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>DATE_OF_DISABLEMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +135,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -132,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,9 +192,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +226,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +278,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,14 +471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
@@ -432,9 +488,10 @@
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -468,8 +525,11 @@
       <c r="K1" t="s">
         <v>14</v>
       </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44561</v>
       </c>
@@ -503,8 +563,11 @@
       <c r="K2">
         <v>0.04</v>
       </c>
+      <c r="L2" s="1">
+        <v>44562</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44561</v>
       </c>
@@ -538,8 +601,11 @@
       <c r="K3">
         <v>0.03</v>
       </c>
+      <c r="L3" s="1">
+        <v>42278</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>

--- a/examples/03_mortality/portfolio/portfolio_small.xlsx
+++ b/examples/03_mortality/portfolio/portfolio_small.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Oracle\PyProtolinc\examples\03_mortality\portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\py\PyProtolinc\examples\03_mortality\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB02CFE-8571-45F9-B72B-EDD86DD09588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-420" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-420" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -87,10 +86,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,12 +126,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -227,23 +226,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,23 +261,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,11 +436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,9 +528,7 @@
       <c r="K2">
         <v>0.04</v>
       </c>
-      <c r="L2" s="1">
-        <v>44562</v>
-      </c>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -602,7 +565,7 @@
         <v>0.03</v>
       </c>
       <c r="L3" s="1">
-        <v>42278</v>
+        <v>43009</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
